--- a/1я стр тесты, 2ая стр- создание сообщества.xlsx
+++ b/1я стр тесты, 2ая стр- создание сообщества.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anya\Desktop\курсы qa\модуль 5 тест дизайн\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anya\Documents\GitHub\my-second-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,6 @@
     <definedName name="Result">Sheet1!$B$2:$B$4</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="104">
   <si>
     <t>passed</t>
   </si>
@@ -428,7 +427,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +614,15 @@
       <color theme="1"/>
       <name val="Calibri (Основной текст)"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -927,7 +935,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1038,6 +1046,77 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1047,149 +1126,79 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Вывод" xfId="2" builtinId="21"/>
@@ -1591,7 +1600,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1635,7 +1644,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$43,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1680,7 +1689,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$43,"passed")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1807,43 +1816,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="45" t="s">
+      <c r="F6" s="60"/>
+      <c r="G6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="49" t="s">
+      <c r="I6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="43"/>
+      <c r="J6" s="68"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="67" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="67" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="42"/>
+      <c r="P6" s="67"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="42"/>
+      <c r="R6" s="67"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="42"/>
+      <c r="T6" s="67"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1853,29 +1862,29 @@
     </row>
     <row r="7" spans="1:124" ht="36.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="48"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="46"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="44"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="42"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="67"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="42"/>
+      <c r="P7" s="67"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="42"/>
+      <c r="R7" s="67"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="42"/>
+      <c r="T7" s="67"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1905,7 +1914,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1923,31 +1934,33 @@
     </row>
     <row r="9" spans="1:124" ht="108" customHeight="1">
       <c r="A9" s="12"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="89" t="s">
+      <c r="B9" s="55"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="59" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="11"/>
-      <c r="N9" s="93"/>
+      <c r="N9" s="59"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="93"/>
+      <c r="P9" s="59"/>
       <c r="Q9" s="11"/>
-      <c r="R9" s="93"/>
+      <c r="R9" s="59"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="93"/>
+      <c r="T9" s="59"/>
       <c r="U9" s="11"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
@@ -1975,7 +1988,9 @@
       <c r="I10" s="28"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="94" t="s">
+        <v>1</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -2011,7 +2026,9 @@
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
@@ -2181,7 +2198,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -2217,7 +2236,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -2253,7 +2274,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2289,7 +2312,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="94" t="s">
+        <v>1</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2325,7 +2350,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -3579,12 +3606,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3592,6 +3613,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L13:L43 R13:R43 P13:P43 T13:T43 T8:T11 P8:P11 R8:R11 L8:L11 N8:N11 N13:N43">
@@ -3629,942 +3656,1021 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" ht="30">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="80"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="80"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="80"/>
-      <c r="B6" s="56" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="80"/>
-      <c r="B7" s="56" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="81"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68" t="s">
+      <c r="C9" s="71"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="81"/>
-      <c r="B10" s="56" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="86"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="52"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="80"/>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="70"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="80"/>
-      <c r="B13" s="56" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="71"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="50"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="80"/>
-      <c r="B14" s="56" t="s">
+      <c r="A14" s="74"/>
+      <c r="B14" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="71"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="50"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="80"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="74"/>
+      <c r="B15" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="71"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="80"/>
-      <c r="B16" s="56" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="71"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="50"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="81"/>
-      <c r="B17" s="56" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="71"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="50"/>
     </row>
     <row r="18" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="76"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="59" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="76"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1">
-      <c r="A21" s="56"/>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="68" t="s">
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="76"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="76"/>
-      <c r="H22" s="68" t="s">
+      <c r="D22" s="85"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I22" s="87"/>
-      <c r="J22" s="68"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="47"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="55"/>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="89"/>
+      <c r="B23" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="68" t="s">
+      <c r="D23" s="85"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="87"/>
-      <c r="J23" s="68"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="47"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55" t="s">
+      <c r="A24" s="89"/>
+      <c r="B24" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="68"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="47"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56" t="s">
+      <c r="A25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="68"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56" t="s">
+      <c r="A26" s="89"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="68"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="47"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56" t="s">
+      <c r="A27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="68"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" ht="18" customHeight="1">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56" t="s">
+      <c r="A28" s="89"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="68"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="47"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55" t="s">
+      <c r="A29" s="89"/>
+      <c r="B29" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="68"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="47"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56" t="s">
+      <c r="A30" s="89"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="68"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="47"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56" t="s">
+      <c r="A31" s="89"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="68"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="53"/>
+      <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56" t="s">
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="68"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="47"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56" t="s">
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="68"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="47"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="55"/>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="89"/>
+      <c r="B34" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="68"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="47"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56" t="s">
+      <c r="A35" s="89"/>
+      <c r="B35" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="68" t="s">
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="I35" s="87"/>
-      <c r="J35" s="68"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="47"/>
     </row>
     <row r="36" spans="1:10" ht="27" customHeight="1">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="89"/>
+      <c r="B36" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="68"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="47"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="68"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="47"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="56"/>
-      <c r="B38" s="55" t="s">
+      <c r="A38" s="85"/>
+      <c r="B38" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="68"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="47"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="56"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56" t="s">
+      <c r="A39" s="85"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="68"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="47"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="56"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="56" t="s">
+      <c r="A40" s="85"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="68"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="47"/>
     </row>
     <row r="41" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A41" s="56"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="56" t="s">
+      <c r="A41" s="85"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="68"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A42" s="56" t="s">
+      <c r="A42" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="57" t="s">
+      <c r="B42" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="68"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="47"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="56"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="85"/>
+      <c r="B43" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="68"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="47"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="56"/>
-      <c r="B44" s="57" t="s">
+      <c r="A44" s="85"/>
+      <c r="B44" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="68"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="47"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="76"/>
-      <c r="J45" s="68"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="47"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57" t="s">
+      <c r="A46" s="85"/>
+      <c r="B46" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="74"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="68"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="47"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57" t="s">
+      <c r="A47" s="85"/>
+      <c r="B47" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="75"/>
-      <c r="G47" s="75"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
-      <c r="J47" s="68"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="47"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57" t="s">
+      <c r="A48" s="85"/>
+      <c r="B48" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="88"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="66" t="s">
+      <c r="B49" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="88"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="79"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="88"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="80"/>
+      <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1">
-      <c r="A51" s="61"/>
-      <c r="B51" s="58" t="s">
+      <c r="A51" s="87"/>
+      <c r="B51" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="56"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="76"/>
-      <c r="J51" s="68"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="79"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="47"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="61"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="56" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="56"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="75"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="68"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="79"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="81"/>
+      <c r="I52" s="80"/>
+      <c r="J52" s="47"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="61"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="56" t="s">
+      <c r="A53" s="87"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="56"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="75"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
-      <c r="J53" s="68"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="79"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="80"/>
+      <c r="J53" s="47"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="61"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="56" t="s">
+      <c r="A54" s="87"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="56"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="75"/>
-      <c r="G54" s="75"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="68"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="79"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="81"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="47"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="61"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="56" t="s">
+      <c r="A55" s="87"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D55" s="56"/>
-      <c r="E55" s="74"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="68"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="81"/>
+      <c r="I55" s="80"/>
+      <c r="J55" s="47"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="61"/>
-      <c r="B56" s="56" t="s">
+      <c r="A56" s="87"/>
+      <c r="B56" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="56"/>
-      <c r="E56" s="74"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="75"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="76"/>
-      <c r="J56" s="68"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="81"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="47"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="61"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="56" t="s">
+      <c r="A57" s="87"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="D57" s="56"/>
-      <c r="E57" s="74"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="75"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="76"/>
-      <c r="J57" s="68"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="81"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="47"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="61"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56" t="s">
+      <c r="A58" s="87"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="56"/>
-      <c r="E58" s="74"/>
-      <c r="F58" s="75"/>
-      <c r="G58" s="75"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="76"/>
-      <c r="J58" s="68"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="81"/>
+      <c r="I58" s="80"/>
+      <c r="J58" s="47"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="61"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56" t="s">
+      <c r="A59" s="87"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="56"/>
-      <c r="E59" s="74"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="75"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="68"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="80"/>
+      <c r="J59" s="47"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="62"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="56" t="s">
+      <c r="A60" s="88"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="56"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="68"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="83"/>
+      <c r="G60" s="83"/>
+      <c r="H60" s="83"/>
+      <c r="I60" s="84"/>
+      <c r="J60" s="47"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="I61" s="60"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="I61" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="A50:A60"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E37:I37"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="E56:I56"/>
@@ -4589,94 +4695,15 @@
     <mergeCell ref="E38:I38"/>
     <mergeCell ref="E39:I39"/>
     <mergeCell ref="E40:I40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A50:A60"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:A48"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B29:B33"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
